--- a/BackupCodes/gui gheck list_0404.xlsx
+++ b/BackupCodes/gui gheck list_0404.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="285" windowWidth="20730" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="해결" sheetId="1" r:id="rId1"/>
     <sheet name="보류" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -202,139 +202,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>chute error 메시지 시 하단 메뉴 보이기 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web 기반: 코드 문제로는 보이지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어부족 msg 후 비디오 화면 진입시 비디오 멈춤, 에어공급 후 살아남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode 및 각종 list control 선택 bar를 현재 값으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 설정 후 프로그램 재 실행전 operator에서 validate password 물음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui에서 wifi on-off 및 비번 입력, ip 수동 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비디오 화면에서 청소 후 GUI 다운됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비디오 화면에서 screen saver 후 깨어나지 않는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 유두 보드에서 부팅시 can't remove xxx message 나타났음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 corr. Table 변경되는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi 접근 시 reflesh 누를 경우 화면에 모든 버튼이 동시에 겹쳐짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi 접근 후 화면screen saver 동작하지 않는 것 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일에서 ip를 통한 장비 접근 시 비번창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비디오 화면에서 가끔 멈추는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결: 장비 걸어 테스트 확인 요망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결: 비디오 데이터 계속 받게끔 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결: Dropdown list 로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비디오 화면에서 fix 누른 후 배경화면 activate/non-activate 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부팅 중 상하 OS 메뉴바 표시 및 접근 막기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결: cancel 시 바로 팝업창 닫음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>버전표기 메뉴 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chute error 메시지 시 하단 메뉴 보이기 허용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web 기반: 코드 문제로는 보이지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어부족 msg 후 비디오 화면 진입시 비디오 멈춤, 에어공급 후 살아남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mode 및 각종 list control 선택 bar를 현재 값으로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 설정 후 프로그램 재 실행전 operator에서 validate password 물음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gui에서 wifi on-off 및 비번 입력, ip 수동 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비디오 화면에서 청소 후 GUI 다운됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비디오 화면에서 screen saver 후 깨어나지 않는 현상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 유두 보드에서 부팅시 can't remove xxx message 나타났음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라 corr. Table 변경되는 현상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wifi 접근 시 reflesh 누를 경우 화면에 모든 버튼이 동시에 겹쳐짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wifi 접근 후 화면screen saver 동작하지 않는 것 같음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일에서 ip를 통한 장비 접근 시 비번창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비디오 화면에서 가끔 멈추는 현상</t>
+    <t>진행중 : 버튼 생성, DB 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 추가위치 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정값 gui에서도 backup 및 recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중 : 화면 구성만 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>청소플래그와 화면표시창 사이 시간이 길어 버튼조작이 허용되는 문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결: 장비 걸어 테스트 확인 요망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결: 비디오 데이터 계속 받게끔 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결: Dropdown list 로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비디오 화면에서 fix 누른 후 배경화면 activate/non-activate 현상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 추가위치 전달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부팅 중 상하 OS 메뉴바 표시 및 접근 막기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정값 gui에서도 backup 및 recovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결: cancel 시 바로 팝업창 닫음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>△</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>△</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중 : 화면 구성만 완료, DB 연결 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중 : 버튼 생성, DB 연결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,15 +597,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -623,9 +626,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,7 +931,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -971,12 +971,12 @@
       <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="E2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -991,12 +991,12 @@
       <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -1009,12 +1009,12 @@
         <v>31</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -1027,12 +1027,12 @@
         <v>31</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="E5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -1045,12 +1045,12 @@
         <v>31</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -1061,10 +1061,10 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -1077,12 +1077,12 @@
         <v>31</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -1095,12 +1095,12 @@
         <v>31</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -1113,12 +1113,12 @@
         <v>31</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -1131,12 +1131,12 @@
         <v>31</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -1149,12 +1149,12 @@
         <v>31</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -1167,12 +1167,12 @@
         <v>31</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -1187,12 +1187,12 @@
       <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -1205,12 +1205,12 @@
         <v>31</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -1223,12 +1223,12 @@
         <v>31</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -1243,12 +1243,12 @@
       <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -1261,30 +1261,30 @@
         <v>31</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="E18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -1293,10 +1293,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -1305,10 +1305,10 @@
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -1317,10 +1317,10 @@
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
@@ -1329,10 +1329,10 @@
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -1341,10 +1341,10 @@
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
@@ -1353,10 +1353,10 @@
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
@@ -1365,10 +1365,10 @@
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -1377,10 +1377,10 @@
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -1389,10 +1389,10 @@
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
@@ -1401,10 +1401,10 @@
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
@@ -1413,10 +1413,10 @@
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
@@ -1425,10 +1425,10 @@
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
@@ -1437,10 +1437,10 @@
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
@@ -1449,10 +1449,10 @@
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
@@ -1461,10 +1461,10 @@
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
@@ -1473,10 +1473,10 @@
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
@@ -1485,10 +1485,10 @@
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
@@ -1497,10 +1497,10 @@
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
@@ -1509,10 +1509,10 @@
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
@@ -1521,10 +1521,10 @@
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
@@ -1533,10 +1533,10 @@
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
@@ -1545,10 +1545,10 @@
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
@@ -1557,10 +1557,10 @@
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
@@ -1615,41 +1615,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
     <mergeCell ref="E41:H41"/>
     <mergeCell ref="E42:H42"/>
     <mergeCell ref="E36:H36"/>
@@ -1657,6 +1622,41 @@
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -1669,7 +1669,7 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:I12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1706,202 +1706,202 @@
       <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>77</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="F8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
@@ -1910,10 +1910,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="15"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
@@ -1922,108 +1922,108 @@
       <c r="C15" s="3"/>
       <c r="D15" s="15"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
@@ -2032,10 +2032,10 @@
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
@@ -2044,10 +2044,10 @@
       <c r="C23" s="16"/>
       <c r="D23" s="4"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
@@ -2056,10 +2056,10 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
@@ -2068,10 +2068,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
@@ -2080,10 +2080,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
@@ -2092,10 +2092,10 @@
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
@@ -2104,10 +2104,10 @@
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
@@ -2116,10 +2116,10 @@
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
@@ -2128,10 +2128,10 @@
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
@@ -2140,10 +2140,10 @@
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
@@ -2152,10 +2152,10 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
@@ -2164,10 +2164,10 @@
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
@@ -2176,10 +2176,10 @@
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
@@ -2188,10 +2188,10 @@
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
@@ -2200,30 +2200,19 @@
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F16:I16"/>
@@ -2237,12 +2226,23 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
